--- a/artfynd/A 51992-2021.xlsx
+++ b/artfynd/A 51992-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111799311</v>
+        <v>111799186</v>
       </c>
       <c r="B2" t="n">
-        <v>96251</v>
+        <v>89183</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220093</v>
+        <v>3215</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,13 +727,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>513717.9300395954</v>
+        <v>513784.975650124</v>
       </c>
       <c r="R2" t="n">
-        <v>6704676.858456986</v>
+        <v>6704706.693730025</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -801,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111799186</v>
+        <v>111799311</v>
       </c>
       <c r="B3" t="n">
-        <v>89183</v>
+        <v>96251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,30 +816,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>220093</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>513784.975650124</v>
+        <v>513717.9300395954</v>
       </c>
       <c r="R3" t="n">
-        <v>6704706.693730025</v>
+        <v>6704676.858456986</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>

--- a/artfynd/A 51992-2021.xlsx
+++ b/artfynd/A 51992-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111799186</v>
+        <v>111799311</v>
       </c>
       <c r="B2" t="n">
-        <v>89183</v>
+        <v>96251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,30 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3215</v>
+        <v>220093</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -727,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>513784.975650124</v>
+        <v>513717.9300395954</v>
       </c>
       <c r="R2" t="n">
-        <v>6704706.693730025</v>
+        <v>6704676.858456986</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -800,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111799311</v>
+        <v>111799186</v>
       </c>
       <c r="B3" t="n">
-        <v>96251</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,31 +817,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220093</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>513717.9300395954</v>
+        <v>513784.975650124</v>
       </c>
       <c r="R3" t="n">
-        <v>6704676.858456986</v>
+        <v>6704706.693730025</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>

--- a/artfynd/A 51992-2021.xlsx
+++ b/artfynd/A 51992-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111799186</v>
+        <v>111799311</v>
       </c>
       <c r="B2" t="n">
-        <v>89183</v>
+        <v>96251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,30 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3215</v>
+        <v>220093</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -727,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>513784.975650124</v>
+        <v>513718</v>
       </c>
       <c r="R2" t="n">
-        <v>6704706.693730025</v>
+        <v>6704677</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -760,19 +761,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -800,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111799311</v>
+        <v>111799186</v>
       </c>
       <c r="B3" t="n">
-        <v>96251</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,31 +807,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220093</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -848,13 +838,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>513717.9300395954</v>
+        <v>513785</v>
       </c>
       <c r="R3" t="n">
-        <v>6704676.858456986</v>
+        <v>6704707</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -881,19 +871,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
